--- a/bank statement generator/bank_statements/statement_25.xlsx
+++ b/bank statement generator/bank_statements/statement_25.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 16.05.2024</t>
+          <t>KONTOSTAND AM 21.01.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,130 +759,146 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>19.05.</t>
+          <t>22.01.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>20.05.</t>
+          <t>23.01.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./19.05 REWE RO</t>
+          <t>RECHNUNG VODAFONE GMBH 28076163</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>55,19-</t>
+          <t>39,11-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>20.05.</t>
+          <t>25.01.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>21.05.</t>
+          <t>26.01.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./20.05 REWE RO</t>
+          <t>PAYPAL VTNIJO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>39,22-</t>
+          <t>74,25-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>21.05.</t>
+          <t>27.01.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>22.05.</t>
+          <t>28.01.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./21.05 ALDI SUED RO</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>27,28-</t>
+          <t>59,95-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>23.05.</t>
+          <t>30.01.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>24.05.</t>
+          <t>31.01.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>ZALANDO MKTPLC EU AUJPHO</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>185,80-</t>
+          <t>25,27-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>27.05.</t>
+          <t>02.02.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>28.05.</t>
+          <t>03.02.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 45203822</t>
+          <t>AMAZON.DE MKTPLC EU AWHPYH</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>87,13-</t>
+          <t>204,18-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="12" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>03.02.</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>04.02.</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>BEITRAG Allianz SE K-18086548</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>55,75-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 30.05.2024</t>
+          <t>KONTOSTAND AM 07.02.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>394,62-</t>
+          <t>458,51-</t>
         </is>
       </c>
     </row>
@@ -890,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 06.06.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 16.02.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
